--- a/New folder/Sample2.xlsx
+++ b/New folder/Sample2.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -401,349 +401,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TAG1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>problem1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>COMPLAIN</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Action1</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>tag2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>problem2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>COMP2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Action2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>tag3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>problem3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>COMP3</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Action3</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>tag4</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>problem4</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>COMP4</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Action4</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
     <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>tag5</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>problem5</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>complain5</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Action5</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>43777</v>
-      </c>
+      <c r="H8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>tag6</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>problem6</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>complain6</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Action6</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>s6</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>43777</v>
-      </c>
+      <c r="H9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TAG1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>problem1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>COMPLAIN</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Action1</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
       <c r="H10" s="1" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>tag2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>problem2</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>COMP2</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Action2</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
       <c r="H11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>tag3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>problem3</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>COMP3</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Action3</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
-      </c>
       <c r="H12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>tag4</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>problem4</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>COMP4</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Action4</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
       <c r="H13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>tag5</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>problem5</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>complain5</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Action5</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>08/11/2019</t>
-        </is>
-      </c>
+      <c r="H14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>tag6</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>problem6</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>complain6</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Action6</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>s6</t>
-        </is>
-      </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>08/11/2019</t>
-        </is>
-      </c>
+      <c r="H15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="H16" s="1" t="n"/>

--- a/New folder/Sample2.xlsx
+++ b/New folder/Sample2.xlsx
@@ -351,14 +351,16 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="A11" sqref="A11:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
+    <col customWidth="1" max="2" min="2" width="18.85546875"/>
+    <col customWidth="1" max="4" min="4" width="33"/>
     <col customWidth="1" max="5" min="5" width="12.28515625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="12.42578125"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="103.85546875"/>
     <col customWidth="1" max="8" min="8" width="25.85546875"/>
   </cols>
   <sheetData>
@@ -401,15 +403,190 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>150</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>13-at-004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>151</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>51-LT-071</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">need calibration </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wrong reading </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">level calibration was done as operator hand dip </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Not-closed</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>01-09-2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>152</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>52-PDIT-011A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PMR was done </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Not-closed</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>01-09-2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>153</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>52-PDIT-011B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PMR was done </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Not-closed</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>01-09-2019</t>
+        </is>
+      </c>
+    </row>
     <row r="8">
-      <c r="H8" s="1" t="n"/>
+      <c r="A8" t="n">
+        <v>154</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>52-PDIT-011C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PMR was done </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Not-closed</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2019</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="H9" s="1" t="n"/>
+      <c r="A9" t="n">
+        <v>155</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>52-PDIT-011D</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PMR was done </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Not-closed</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2019</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="H10" s="1" t="n"/>

--- a/New folder/Sample2.xlsx
+++ b/New folder/Sample2.xlsx
@@ -6,9 +6,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Area 02" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="History 02" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,9 +15,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="164"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -49,9 +45,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -349,112 +348,94 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="A11" sqref="A11:H16"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="2" min="2" width="18.85546875"/>
-    <col customWidth="1" max="4" min="4" width="33"/>
-    <col customWidth="1" max="5" min="5" width="12.28515625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="103.85546875"/>
-    <col customWidth="1" max="8" min="8" width="25.85546875"/>
-  </cols>
   <sheetData>
     <row r="1"/>
     <row r="2"/>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3"/>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>sn</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Tag no</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Problem found</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>complain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Action Taken</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>date</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>150</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>13-at-004</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>151</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>51-LT-071</t>
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12-ft-03</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">need calibration </t>
+          <t>pmr</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wrong reading </t>
+          <t>pmr</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">level calibration was done as operator hand dip </t>
+          <t>pmr was carried</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Not-closed</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>01-09-2019</t>
-        </is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>43466</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>152</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>52-PDIT-011A</t>
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>05-VSH-112A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -469,27 +450,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">PMR was done </t>
+          <t xml:space="preserve">PMR was carried out </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Not-closed</t>
+          <t xml:space="preserve">Closed </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>01-09-2019</t>
+          <t>06-03-2019</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>153</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>52-PDIT-011B</t>
+        <v>12</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>13-FV-074</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -504,27 +485,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">PMR was done </t>
+          <t xml:space="preserve">PMR was carried out </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Not-closed</t>
+          <t xml:space="preserve">Closed </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>01-09-2019</t>
+          <t>06-03-2019</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>154</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>52-PDIT-011C</t>
+        <v>13</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14-FV-002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -539,27 +520,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">PMR was done </t>
+          <t xml:space="preserve">PMR was carried out </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Not-closed</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>01-09-2019</t>
+          <t xml:space="preserve">Closed </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>06-03-2019</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>155</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>52-PDIT-011D</t>
+        <v>14</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14-VSH-054B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -574,126 +555,1290 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">PMR was done </t>
+          <t xml:space="preserve">PMR was carried out </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Not-closed</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>01-09-2019</t>
+          <t xml:space="preserve">Closed </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>06-03-2019</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="H10" s="1" t="n"/>
+      <c r="A10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>02-VSH-002D</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Adjust Setpoint</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Increase setpoint by1/2 turn as requested then function check found ok</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Closed </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>06-03-2019</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="H11" s="1" t="n"/>
+      <c r="A11" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13-FT-058</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Blockage &amp; Condensation</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Hunting</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clear blockage from Tx chamber
+Flushing was done from both sides to clear huge amount of condensation </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Closed </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>06-03-2019</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="H12" s="1" t="n"/>
+      <c r="A12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15-ME-04C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Defective Teflon ring</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No stroke</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Stopped, waiting crane</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Closed </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>06-03-2019</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="H13" s="1" t="n"/>
+      <c r="A13" t="n">
+        <v>18</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>02-H-01</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Blocked nozzle</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pilot alarm</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Clean nozzles and adjust air/fuel ratio</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Closed </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>06-03-2019</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="H14" s="1" t="n"/>
+      <c r="A14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13-FT-058</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Condensation</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Wrong reading</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Flushing was done from both sides to clear condensation then check reading found ok</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Closed </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>06-03-2019</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="H15" s="1" t="n"/>
+      <c r="A15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>51-LT-071</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PMR WAS DONE</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>06-03-2019</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="H16" s="1" t="n"/>
+      <c r="A16" t="n">
+        <v>21</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>02-LT-009</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>PMR was carried out. Install new cable gland and shroud</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Completed </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>10-12-2012</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="H17" s="1" t="n"/>
+      <c r="A17" t="n">
+        <v>22</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>02-LT-010</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PMR was carried out.could not check span as the upper main isolation valve is passing </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Completed </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>10-12-2012</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="H18" s="1" t="n"/>
+      <c r="A18" t="n">
+        <v>23</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>02-PT-004</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>stopped as the main isolation valve is passing and there is no manifold .ask EPROM shift engineer to transfer the job to static dept.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Stopped</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>10-12-2012</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="H19" s="1" t="n"/>
+      <c r="A19" t="n">
+        <v>24</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>12-FV-050</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>PMR was carried out, need shroud .</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Completed </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>10-12-2012</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="H20" s="1" t="n"/>
+      <c r="A20" t="n">
+        <v>25</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>02-FT-005A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>flushing, complet function check was done found ok</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Completed </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>10-12-2012</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="H21" s="1" t="n"/>
+      <c r="A21" t="n">
+        <v>26</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>13-LT-031</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>wrong reading</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Replace defective cell then complete calibration was done found ok</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>COMPLETED</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>11-01-2010</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="H22" s="1" t="n"/>
+      <c r="A22" t="n">
+        <v>27</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>13-LT-032</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Function check was done found ok</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>COMPLETED</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>11-01-2010</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="H23" s="1" t="n"/>
+      <c r="A23" t="n">
+        <v>28</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>13-PT-081</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Complete calibration was done</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>COMPLETED</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>11-01-2010</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="H24" s="1" t="n"/>
+      <c r="A24" t="n">
+        <v>29</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>05-PT-019</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Replace the defective manifold and impulse tube then function check was done found ok </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>COMPLETED</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>11-01-2010</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="H25" s="1" t="n"/>
+      <c r="A25" t="n">
+        <v>30</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>05-PI-243</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Stopped as there is no spare parts</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>waiting spare parts</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>11-01-2010</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="H26" s="1" t="n"/>
+      <c r="A26" t="n">
+        <v>31</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14-PDT-057</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wrong reading</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Clear blockage and complete function check was done found ok</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>COMPLETED</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>11-01-2010</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="H27" s="1" t="n"/>
+      <c r="A27" t="n">
+        <v>32</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>05-LT-003</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Repair the defective connection for communication block card then complete function check was done found ok</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>COMPLETED</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>11-01-2010</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="H28" s="1" t="n"/>
+      <c r="A28" t="n">
+        <v>33</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>52-PT-22B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Leakage</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tighten on nuts then function check was done found no leakage </t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>COMPLETED</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>11-01-2010</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="H29" s="1" t="n"/>
+      <c r="A29" t="n">
+        <v>34</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>12-FT-021</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PMR check was carried out </t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>COMPLETED</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>11-01-2010</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="H30" s="1" t="n"/>
+      <c r="A30" t="n">
+        <v>35</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>12-FT-022</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PMR check was carried out </t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>COMPLETED</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>11-01-2010</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="H31" s="1" t="n"/>
+      <c r="A31" t="n">
+        <v>36</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>12-FT-050</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PMR check was carried out </t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>COMPLETED</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>11-01-2010</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="H32" s="1" t="n"/>
+      <c r="A32" t="n">
+        <v>37</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>12-PV-032</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PMR check was carried out </t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>COMPLETED</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>11-01-2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>12-FT-025</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Stopped by STL</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>STOPPED</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>11-01-2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>12-PV-010</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Stopped by STL</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>STOPPED</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>11-01-2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>40</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>12-PV-025</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Stopped by STL</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>STOPPED</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>11-01-2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>41</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>13-LV-019</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Leakage</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Tighten on valve packing to stop leakage; Check valve stroke found ok.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>17-9-2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>42</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>07-PDT-006</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>wrong reading</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Zero and span calibration were done, replace the old manifold by new one with new (1/2 NPT * 12mm) fitting then check reading found ok.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>17-9-2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>43</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>04-K-02(MP06A)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Assist EPROM shift Eng. To check the pump Start/Stop relay.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>17-9-2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>44</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>04-K-02A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Survey</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Survey was done for tag no. found the following:
+missing:TE-653A,C&amp;TE-115A,B.C&amp;TE-30A,B,C&amp;TSH-614B,650E&amp;LSL-603A,B&amp;TE-114B,28B.
+Clean:XYV-623,627,622,625,626,620,628 &amp; PSL-632,634,645 &amp; PSLL-635,633,631 &amp; TE-28A,113,655,626,635,652E,F,G,H,A,B,C,D &amp;TE-650F,E,D,B,C.
+Replace: TSH-614A,653B &amp; PSL-630 &amp; PSLL-616,615.
+Modify: TSH-614C,B &amp; 652L,J,I,K.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>17-9-2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>45</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>51-LIT-071</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>PMR</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>PMR was carried out.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>17-9-2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>46</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>13-FT-091</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Wrong reading</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Reset, Zero / Span calibration were done, Remove the defective display, flush from manifold was done then check reading found ok.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Not closed</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>20-04-2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>47</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>07-PT-021</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Wrong reading</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zero / Span calibration were done several times till the transmitter accept then check reading found ok.
+Note: install new U-bolt for the mounting bracket and needs 2 cover o-rings.
+It is recommended to replace the transmitter and its mounting bracket by new ones, replace the whole impulse tube with its 2 fittings (1/2" NPT * 12mm Tube)
+</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Not closed</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>20-04-2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>48</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>13-TE-065,066</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Wrong reading</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Check elements and loop were done found ok. Swap the elements found the reading as before.
+Note: there is a problem in TE-066 thermowell and needs to be checked ,waiting S/D.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Not closed</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>20-04-2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>49</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>13-XV-030</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Clear valve stuck by force open /close ,check regulator found continuously vent, increase the regulator o/p then check valve open / close found ok, and replace the air regulator with an old one then check valve stroke found ok</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Not closed</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>20-04-2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>50</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>15-LT-004</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Install new HF module</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>dismantle the Tx and Install a new HF module, Factory calibration as done at EMC w/s, install again and custom mapping were done then check reading found ok.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Not closed</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>20-04-2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>51</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>13-XV-029</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>check found the valve is stuck at open, dismantle the actuator and check found it ok, check the valve body found it moving hardly, needs to be dismantled to carry out maintenance but operation department refused so its waiting for shutdown.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Not closed</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>20-04-2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>52</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>07-FT-019</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Wrong reading</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Zero check, Span calibration, flush tube were done then check reading found ok.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Not closed</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>20-04-2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>53</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>13-PT-054</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Blockage</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Reset power and clear blockage were done then check reading found ok.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Not closed</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>20-04-2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>54</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>13-FT-091</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Wrong reading</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Replace the electronic Module with an old one then check reading found ok.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Not closed</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>20-04-2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>55</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>51-FT-030</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Wrong reading</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>dismantle the turbine and clean it with steam, jhkgg vddfveaverg  egg sefgs f s f df vsf vgrbb g rdg d g dfgbdgfb bdfbdf gbdb f  d b, bsfgbsg. Bfbfbfgbdf sfbdgb .h nd gdgnd   . Df gd bdf bg dn hthnfhndghnnf  ng nn nfg fn .</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Not closed</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>20-04-2016</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>